--- a/docs/notes/Isa_notes.xlsx
+++ b/docs/notes/Isa_notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Desktop\RISC-V_Debug\docs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0721DB25-31AD-4269-B028-AC70C298D068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845866B1-94C3-4887-A255-166FDCCBEFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FBEA9A49-DABC-42C4-9F55-4112FB034AA7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="21000" xr2:uid="{FBEA9A49-DABC-42C4-9F55-4112FB034AA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -664,10 +664,25 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -677,21 +692,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1011,7 +1011,7 @@
   <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,24 +1068,24 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1094,22 +1094,22 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1118,24 +1118,24 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1150,10 +1150,10 @@
       <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1174,18 +1174,18 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="34" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1197,21 +1197,21 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1257,12 +1257,12 @@
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="35">
         <v>31</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="22" t="s">
         <v>29</v>
       </c>
@@ -1279,12 +1279,12 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="35">
         <v>31</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="22" t="s">
         <v>29</v>
       </c>
@@ -1301,11 +1301,11 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="35">
         <v>31</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="20" t="s">
         <v>27</v>
       </c>
@@ -1334,12 +1334,12 @@
       <c r="D14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
@@ -1347,10 +1347,10 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="35">
         <v>31</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
@@ -1419,127 +1419,104 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="D21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="14"/>
+        <v>103</v>
+      </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="14"/>
+        <v>103</v>
+      </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="14"/>
+        <v>104</v>
+      </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -1547,19 +1524,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -1567,19 +1541,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -1587,51 +1558,50 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -1639,19 +1609,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -1659,19 +1626,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -1679,19 +1643,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -1699,406 +1660,406 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>138</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>137</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>137</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="14"/>
+        <v>109</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
@@ -2185,7 +2146,6 @@
       <c r="E59" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
@@ -2203,7 +2163,6 @@
       <c r="E60" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
@@ -2905,17 +2864,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C8:D8"/>
@@ -2924,12 +2872,23 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H11:H13 E13 E15 H15 E14 B75:B78 B81:C112 D41:D56 D19:E27 E30 D30:D39 E31:E39 D57:G58 H58 D67:D72 D59:D66 E59:E66" numberStoredAsText="1"/>
+    <ignoredError sqref="H11:H13 E13 E15 H15 E14 B75:B78 B81:C112 D22:D28 D29:H44 D59:E72 D46:H58 D45 F45:H45" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/notes/Isa_notes.xlsx
+++ b/docs/notes/Isa_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Desktop\RISC-V_Debug\docs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845866B1-94C3-4887-A255-166FDCCBEFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100ED7DF-9EBD-41B5-93EA-A724A5B8FF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="21000" xr2:uid="{FBEA9A49-DABC-42C4-9F55-4112FB034AA7}"/>
+    <workbookView xWindow="12975" yWindow="3120" windowWidth="14520" windowHeight="13635" xr2:uid="{FBEA9A49-DABC-42C4-9F55-4112FB034AA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="138">
   <si>
     <t>Instruction Formats</t>
   </si>
@@ -255,36 +255,9 @@
     <t>SYSTEM</t>
   </si>
   <si>
-    <t>MUL</t>
-  </si>
-  <si>
-    <t>MULH</t>
-  </si>
-  <si>
-    <t>MULHU</t>
-  </si>
-  <si>
-    <t>MULHSU</t>
-  </si>
-  <si>
-    <t>DIV</t>
-  </si>
-  <si>
-    <t>DIVU</t>
-  </si>
-  <si>
-    <t>REM</t>
-  </si>
-  <si>
-    <t>REMU</t>
-  </si>
-  <si>
     <t>RV32I</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Zicsr</t>
   </si>
   <si>
@@ -444,9 +417,6 @@
     <t>0100000</t>
   </si>
   <si>
-    <t>0000001</t>
-  </si>
-  <si>
     <t>00000</t>
   </si>
   <si>
@@ -457,6 +427,18 @@
   </si>
   <si>
     <t>000000000001</t>
+  </si>
+  <si>
+    <t>MRET</t>
+  </si>
+  <si>
+    <t>WFI</t>
+  </si>
+  <si>
+    <t>001100000010</t>
+  </si>
+  <si>
+    <t>000100000101</t>
   </si>
 </sst>
 </file>
@@ -478,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +575,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -658,31 +646,12 @@
     <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -694,6 +663,23 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C434AEF-ADA8-48C8-8CC1-5CBF5AC13810}">
-  <dimension ref="A2:K112"/>
+  <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,24 +1054,24 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1094,22 +1080,22 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1118,24 +1104,24 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1150,10 +1136,10 @@
       <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1174,18 +1160,18 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="33" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1197,21 +1183,21 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="33" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1257,12 +1243,12 @@
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="27">
         <v>31</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="22" t="s">
         <v>29</v>
       </c>
@@ -1279,12 +1265,12 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="27">
         <v>31</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="22" t="s">
         <v>29</v>
       </c>
@@ -1301,11 +1287,11 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="27">
         <v>31</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="20" t="s">
         <v>27</v>
       </c>
@@ -1334,12 +1320,12 @@
       <c r="D14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
@@ -1347,10 +1333,10 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="27">
         <v>31</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
@@ -1382,13 +1368,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1414,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1465,7 +1448,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -1482,7 +1465,7 @@
         <v>68</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -1499,7 +1482,7 @@
         <v>68</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -1516,7 +1499,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -1533,7 +1516,7 @@
         <v>68</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -1550,7 +1533,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -1567,7 +1550,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -1575,7 +1558,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1584,7 +1567,7 @@
         <v>69</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -1592,7 +1575,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1601,7 +1584,7 @@
         <v>69</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -1609,7 +1592,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1618,7 +1601,7 @@
         <v>69</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -1626,7 +1609,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1635,7 +1618,7 @@
         <v>69</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -1643,7 +1626,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1652,7 +1635,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -1660,7 +1643,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1669,13 +1652,13 @@
         <v>70</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -1684,13 +1667,13 @@
         <v>70</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -1699,7 +1682,7 @@
         <v>70</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F36" s="14"/>
     </row>
@@ -1714,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -1730,7 +1713,7 @@
         <v>42</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -1748,7 +1731,7 @@
         <v>42</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -1766,7 +1749,7 @@
         <v>42</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -1783,7 +1766,7 @@
         <v>42</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -1800,7 +1783,7 @@
         <v>42</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -1817,10 +1800,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
@@ -1836,10 +1819,10 @@
         <v>42</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
@@ -1855,10 +1838,10 @@
         <v>42</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
@@ -1875,10 +1858,10 @@
         <v>59</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
@@ -1895,10 +1878,10 @@
         <v>59</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -1915,10 +1898,10 @@
         <v>59</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
@@ -1935,10 +1918,10 @@
         <v>59</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
@@ -1955,10 +1938,10 @@
         <v>59</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
@@ -1975,10 +1958,10 @@
         <v>59</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
@@ -1995,10 +1978,10 @@
         <v>59</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
@@ -2015,10 +1998,10 @@
         <v>59</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
@@ -2035,10 +2018,10 @@
         <v>59</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
@@ -2055,10 +2038,10 @@
         <v>59</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
@@ -2075,7 +2058,7 @@
         <v>72</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -2093,17 +2076,17 @@
         <v>75</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2117,324 +2100,320 @@
         <v>75</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>59</v>
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>139</v>
+        <v>94</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>59</v>
+      <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>139</v>
+        <v>94</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>59</v>
+      <c r="B62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>139</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E62" s="14"/>
       <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>59</v>
+      <c r="B63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>139</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E63" s="14"/>
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>59</v>
+      <c r="B64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>139</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E64" s="14"/>
       <c r="F64" s="14"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>59</v>
+      <c r="B65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>139</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E65" s="14"/>
       <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>59</v>
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>139</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E66" s="14"/>
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="14"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="37"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="14" t="s">
+      <c r="D77" s="37"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="14" t="s">
+      <c r="D78" s="37"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" s="14" t="s">
+      <c r="D79" s="37"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="14"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D80" s="14"/>
+      <c r="D80" s="37"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>103</v>
+      <c r="A81" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
@@ -2443,13 +2422,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
@@ -2457,59 +2436,59 @@
       <c r="G82" s="14"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83" s="14"/>
+      <c r="A83" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="37"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C84" s="28" t="s">
+      <c r="A84" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="14"/>
+      <c r="B84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="37"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" s="27" t="s">
+      <c r="A85" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D85" s="14"/>
+      <c r="B85" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="37"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" s="27" t="s">
+      <c r="A86" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>108</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
@@ -2517,44 +2496,44 @@
       <c r="G86" s="14"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D87" s="14"/>
+      <c r="A87" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="37"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="14"/>
+      <c r="A88" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="37"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>103</v>
+      <c r="A89" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
@@ -2563,13 +2542,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
@@ -2578,43 +2557,43 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="D91" s="37"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D92" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="D92" s="37"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>107</v>
+      <c r="A93" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
@@ -2622,14 +2601,14 @@
       <c r="G93" s="14"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>108</v>
+      <c r="A94" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
@@ -2638,13 +2617,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B95" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -2653,217 +2632,142 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="14">
+        <v>10</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="14">
+        <v>10</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="14">
+        <v>10</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="25">
+        <v>11</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="38"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" s="25">
+        <v>11</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="38"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="14">
+        <v>11</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102" s="25">
+        <v>11</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="38"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="25">
+        <v>11</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" s="38"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="14">
+        <v>11</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" s="14">
+        <v>11</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B102" s="14">
-        <v>10</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B103" s="14">
-        <v>10</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104" s="14">
-        <v>10</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B105" s="27">
+      <c r="B106" s="14">
         <v>11</v>
       </c>
-      <c r="C105" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B106" s="27">
-        <v>11</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B107" s="14">
-        <v>11</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B108" s="27">
-        <v>11</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B109" s="27">
-        <v>11</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B110" s="14">
-        <v>11</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B111" s="14">
-        <v>11</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B112" s="14">
-        <v>11</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>110</v>
+      <c r="C106" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C8:D8"/>
@@ -2872,23 +2776,12 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H11:H13 E13 E15 H15 E14 B75:B78 B81:C112 D22:D28 D29:H44 D59:E72 D46:H58 D45 F45:H45" numberStoredAsText="1"/>
+    <ignoredError sqref="H11:H13 E13 E15 H15 E14 B69:B72 B75:C106 D22:D28 D29:H44 D61:E66 D46:H58 D45 E45:H45 D59:D60 F60:G60 F59:G59 H59:H60" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/notes/Isa_notes.xlsx
+++ b/docs/notes/Isa_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Desktop\RISC-V_Debug\docs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100ED7DF-9EBD-41B5-93EA-A724A5B8FF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8310A011-2F52-481E-816F-3A3A83B66D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="3120" windowWidth="14520" windowHeight="13635" xr2:uid="{FBEA9A49-DABC-42C4-9F55-4112FB034AA7}"/>
+    <workbookView xWindow="16830" yWindow="3330" windowWidth="14520" windowHeight="13635" xr2:uid="{FBEA9A49-DABC-42C4-9F55-4112FB034AA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,10 +648,27 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -663,23 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C434AEF-ADA8-48C8-8CC1-5CBF5AC13810}">
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,24 +1054,24 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1080,22 +1080,22 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1104,24 +1104,24 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1160,18 +1160,18 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="32" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1183,21 +1183,21 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1243,12 +1243,12 @@
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="35">
         <v>31</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="22" t="s">
         <v>29</v>
       </c>
@@ -1265,12 +1265,12 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="35">
         <v>31</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="22" t="s">
         <v>29</v>
       </c>
@@ -1287,11 +1287,11 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="35">
         <v>31</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="20" t="s">
         <v>27</v>
       </c>
@@ -1320,12 +1320,12 @@
       <c r="D14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
@@ -1333,10 +1333,10 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="35">
         <v>31</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="C75" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="37"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
@@ -2340,7 +2340,7 @@
       <c r="C76" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="37"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
@@ -2355,7 +2355,7 @@
       <c r="C77" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="37"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
@@ -2370,7 +2370,7 @@
       <c r="C78" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D78" s="37"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
@@ -2385,7 +2385,7 @@
       <c r="C79" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="37"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
@@ -2400,7 +2400,7 @@
       <c r="C80" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D80" s="37"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
@@ -2445,7 +2445,7 @@
       <c r="C83" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="37"/>
+      <c r="D83" s="27"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
@@ -2460,7 +2460,7 @@
       <c r="C84" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D84" s="37"/>
+      <c r="D84" s="27"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
@@ -2475,7 +2475,7 @@
       <c r="C85" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="37"/>
+      <c r="D85" s="27"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
@@ -2505,7 +2505,7 @@
       <c r="C87" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D87" s="37"/>
+      <c r="D87" s="27"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
@@ -2520,7 +2520,7 @@
       <c r="C88" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="37"/>
+      <c r="D88" s="27"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
@@ -2535,7 +2535,7 @@
       <c r="C89" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D89" s="14"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
@@ -2550,7 +2550,7 @@
       <c r="C90" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="14"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
@@ -2565,7 +2565,7 @@
       <c r="C91" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D91" s="37"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
@@ -2580,7 +2580,7 @@
       <c r="C92" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
@@ -2673,7 +2673,7 @@
       <c r="C99" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D99" s="38"/>
+      <c r="D99" s="28"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
@@ -2685,7 +2685,7 @@
       <c r="C100" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D100" s="38"/>
+      <c r="D100" s="28"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
@@ -2708,7 +2708,7 @@
       <c r="C102" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="38"/>
+      <c r="D102" s="28"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
@@ -2720,7 +2720,7 @@
       <c r="C103" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D103" s="38"/>
+      <c r="D103" s="28"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
@@ -2757,17 +2757,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C8:D8"/>
@@ -2776,6 +2765,17 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
